--- a/data/reports/mean_price_psf_train_results_with_rank.xlsx
+++ b/data/reports/mean_price_psf_train_results_with_rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\GitHub\time-series-house-price-forecasting\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EB9189-D1AB-41F8-87D4-69F2F7090A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B8D357-681C-4797-B692-9DB299ACCEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,12 +61,12 @@
     <t>rank_mse</t>
   </si>
   <si>
+    <t>rank_rmse</t>
+  </si>
+  <si>
     <t>rank_mae</t>
   </si>
   <si>
-    <t>rank_rmse</t>
-  </si>
-  <si>
     <t>rank_mape</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>MSE</t>
   </si>
   <si>
+    <t>RMSE</t>
+  </si>
+  <si>
     <t>MAE</t>
   </si>
   <si>
-    <t>RMSE</t>
-  </si>
-  <si>
     <t>MAPE</t>
   </si>
   <si>
@@ -115,49 +115,49 @@
     <t>MGD</t>
   </si>
   <si>
-    <t>ARIMA(2, 2, 2)</t>
-  </si>
-  <si>
-    <t>ARIMA(1, 2, 1)</t>
-  </si>
-  <si>
-    <t>ARIMA(1, 2, 2)</t>
-  </si>
-  <si>
-    <t>ARIMA(1, 1, 1)</t>
-  </si>
-  <si>
-    <t>ARIMA(1, 1, 2)</t>
-  </si>
-  <si>
-    <t>SARIMAX(2, 2, 2)</t>
-  </si>
-  <si>
-    <t>SARIMAX(1, 2, 1)</t>
-  </si>
-  <si>
-    <t>SARIMAX(1, 2, 2)</t>
-  </si>
-  <si>
-    <t>SARIMAX(1, 1, 1)</t>
-  </si>
-  <si>
-    <t>SARIMAX(1, 1, 2)</t>
-  </si>
-  <si>
-    <t>Holt-Winters(p=11)</t>
-  </si>
-  <si>
-    <t>Holt-Winters(p=9)</t>
-  </si>
-  <si>
-    <t>Holt-Winters(p=6)</t>
-  </si>
-  <si>
-    <t>Holt-Winters(p=2)</t>
-  </si>
-  <si>
-    <t>Holt-Winters(p=10)</t>
+    <t>ARIMA (2, 2, 2)</t>
+  </si>
+  <si>
+    <t>ARIMA (1, 2, 1)</t>
+  </si>
+  <si>
+    <t>ARIMA (1, 2, 2)</t>
+  </si>
+  <si>
+    <t>ARIMA (1, 1, 1)</t>
+  </si>
+  <si>
+    <t>ARIMA (1, 1, 2)</t>
+  </si>
+  <si>
+    <t>SARIMAX (2, 2, 2)</t>
+  </si>
+  <si>
+    <t>SARIMAX (1, 2, 1)</t>
+  </si>
+  <si>
+    <t>SARIMAX (1, 2, 2)</t>
+  </si>
+  <si>
+    <t>SARIMAX (1, 1, 1)</t>
+  </si>
+  <si>
+    <t>SARIMAX (1, 1, 2)</t>
+  </si>
+  <si>
+    <t>Holt-Winters (p=11)</t>
+  </si>
+  <si>
+    <t>Holt-Winters (p=9)</t>
+  </si>
+  <si>
+    <t>Holt-Winters (p=6)</t>
+  </si>
+  <si>
+    <t>Holt-Winters (p=2)</t>
+  </si>
+  <si>
+    <t>Holt-Winters (p=10)</t>
   </si>
 </sst>
 </file>
@@ -563,12 +563,11 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
@@ -714,10 +713,10 @@
         <v>1.5</v>
       </c>
       <c r="N2">
+        <v>1.5</v>
+      </c>
+      <c r="O2">
         <v>3.5</v>
-      </c>
-      <c r="O2">
-        <v>1.5</v>
       </c>
       <c r="P2">
         <v>3.5</v>
@@ -743,11 +742,11 @@
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2:AD2" si="0">_xlfn.CONCAT(ROUND(C2,6)," (",N2,")")</f>
-        <v>12.441379 (3.5)</v>
+        <v>12.441379 (1.5)</v>
       </c>
       <c r="X2" t="str">
         <f t="shared" si="0"/>
-        <v>10.933053 (1.5)</v>
+        <v>10.933053 (3.5)</v>
       </c>
       <c r="Y2" t="str">
         <f t="shared" si="0"/>
@@ -774,8 +773,7 @@
         <v>0.000608 (1.5)</v>
       </c>
       <c r="AE2" s="2">
-        <f>AVERAGE(M2:U2)</f>
-        <v>2.1666666666666665</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -819,10 +817,10 @@
         <v>3.5</v>
       </c>
       <c r="N3">
+        <v>3.5</v>
+      </c>
+      <c r="O3">
         <v>1.5</v>
-      </c>
-      <c r="O3">
-        <v>3.5</v>
       </c>
       <c r="P3">
         <v>1.5</v>
@@ -848,11 +846,11 @@
       </c>
       <c r="W3" t="str">
         <f t="shared" ref="W3:W16" si="2">_xlfn.CONCAT(ROUND(C3,6)," (",N3,")")</f>
-        <v>12.644193 (1.5)</v>
+        <v>12.644193 (3.5)</v>
       </c>
       <c r="X3" t="str">
         <f t="shared" ref="X3:X16" si="3">_xlfn.CONCAT(ROUND(D3,6)," (",O3,")")</f>
-        <v>10.453818 (3.5)</v>
+        <v>10.453818 (1.5)</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" ref="Y3:Y16" si="4">_xlfn.CONCAT(ROUND(E3,6)," (",P3,")")</f>
@@ -879,8 +877,7 @@
         <v>0.000628 (3.5)</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE16" si="10">AVERAGE(M3:U3)</f>
-        <v>2.8333333333333335</v>
+        <v>2.7166666666666668</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -984,8 +981,7 @@
         <v>0.002799 (5.5)</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="10"/>
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1089,8 +1085,7 @@
         <v>0.002924 (7.5)</v>
       </c>
       <c r="AE5" s="2">
-        <f t="shared" si="10"/>
-        <v>7.5</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -1194,8 +1189,7 @@
         <v>0.003454 (10.5)</v>
       </c>
       <c r="AE6" s="2">
-        <f t="shared" si="10"/>
-        <v>10.722222222222221</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1239,10 +1233,10 @@
         <v>1.5</v>
       </c>
       <c r="N7">
+        <v>1.5</v>
+      </c>
+      <c r="O7">
         <v>3.5</v>
-      </c>
-      <c r="O7">
-        <v>1.5</v>
       </c>
       <c r="P7">
         <v>3.5</v>
@@ -1268,11 +1262,11 @@
       </c>
       <c r="W7" t="str">
         <f t="shared" si="2"/>
-        <v>12.441379 (3.5)</v>
+        <v>12.441379 (1.5)</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="3"/>
-        <v>10.933053 (1.5)</v>
+        <v>10.933053 (3.5)</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="4"/>
@@ -1299,8 +1293,7 @@
         <v>0.000608 (1.5)</v>
       </c>
       <c r="AE7" s="2">
-        <f t="shared" si="10"/>
-        <v>2.1666666666666665</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -1344,10 +1337,10 @@
         <v>3.5</v>
       </c>
       <c r="N8">
+        <v>3.5</v>
+      </c>
+      <c r="O8">
         <v>1.5</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
       </c>
       <c r="P8">
         <v>1.5</v>
@@ -1373,11 +1366,11 @@
       </c>
       <c r="W8" t="str">
         <f t="shared" si="2"/>
-        <v>12.644193 (1.5)</v>
+        <v>12.644193 (3.5)</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="3"/>
-        <v>10.453818 (3.5)</v>
+        <v>10.453818 (1.5)</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="4"/>
@@ -1404,8 +1397,7 @@
         <v>0.000628 (3.5)</v>
       </c>
       <c r="AE8" s="2">
-        <f t="shared" si="10"/>
-        <v>2.8333333333333335</v>
+        <v>2.7166666666666668</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1509,8 +1501,7 @@
         <v>0.002799 (5.5)</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" si="10"/>
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -1614,8 +1605,7 @@
         <v>0.002924 (7.5)</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="10"/>
-        <v>7.5</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1719,8 +1709,7 @@
         <v>0.003454 (10.5)</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="10"/>
-        <v>10.722222222222221</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -1824,8 +1813,7 @@
         <v>0.003241 (9)</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -1929,8 +1917,7 @@
         <v>0.004169 (12)</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="10"/>
-        <v>12.333333333333334</v>
+        <v>11.388888888888889</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -2034,8 +2021,7 @@
         <v>0.004264 (13)</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="10"/>
-        <v>12.777777777777779</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2079,10 +2065,10 @@
         <v>14</v>
       </c>
       <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="O15">
         <v>15</v>
-      </c>
-      <c r="O15">
-        <v>14</v>
       </c>
       <c r="P15">
         <v>15</v>
@@ -2108,11 +2094,11 @@
       </c>
       <c r="W15" t="str">
         <f t="shared" si="2"/>
-        <v>35.891869 (15)</v>
+        <v>35.891869 (14)</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="3"/>
-        <v>34.003387 (14)</v>
+        <v>34.003387 (15)</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="4"/>
@@ -2139,8 +2125,7 @@
         <v>0.004683 (14)</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="10"/>
-        <v>14.222222222222221</v>
+        <v>13.233333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -2184,10 +2169,10 @@
         <v>15</v>
       </c>
       <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16">
         <v>14</v>
-      </c>
-      <c r="O16">
-        <v>15</v>
       </c>
       <c r="P16">
         <v>14</v>
@@ -2213,11 +2198,11 @@
       </c>
       <c r="W16" t="str">
         <f t="shared" si="2"/>
-        <v>36.089794 (14)</v>
+        <v>36.089794 (15)</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="3"/>
-        <v>33.792005 (15)</v>
+        <v>33.792005 (14)</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="4"/>
@@ -2244,15 +2229,14 @@
         <v>0.004729 (15)</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="10"/>
-        <v>14.222222222222221</v>
+        <v>13.244444444444451</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:U16">
+  <conditionalFormatting sqref="AE2:AE16">
     <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE16">
+  <conditionalFormatting sqref="M2:U16">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/reports/mean_price_psf_train_results_with_rank.xlsx
+++ b/data/reports/mean_price_psf_train_results_with_rank.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\GitHub\time-series-house-price-forecasting\data\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B8D357-681C-4797-B692-9DB299ACCEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
   <si>
     <t>model</t>
   </si>
@@ -145,29 +139,296 @@
     <t>SARIMAX (1, 1, 2)</t>
   </si>
   <si>
-    <t>Holt-Winters (p=11)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=9)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=6)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=2)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=10)</t>
+    <t>Holt (p=11)</t>
+  </si>
+  <si>
+    <t>Holt (p=9)</t>
+  </si>
+  <si>
+    <t>Holt (p=6)</t>
+  </si>
+  <si>
+    <t>Holt (p=2)</t>
+  </si>
+  <si>
+    <t>Holt (p=10)</t>
+  </si>
+  <si>
+    <t>154.78790371967554 (1.5)</t>
+  </si>
+  <si>
+    <t>159.87560961672497 (3.5)</t>
+  </si>
+  <si>
+    <t>677.7322678181815 (5.5)</t>
+  </si>
+  <si>
+    <t>784.2486230908794 (7.5)</t>
+  </si>
+  <si>
+    <t>933.9090134517546 (10.5)</t>
+  </si>
+  <si>
+    <t>874.9866263891904 (9.0)</t>
+  </si>
+  <si>
+    <t>1139.2634110488113 (12.0)</t>
+  </si>
+  <si>
+    <t>1168.9790808188618 (13.0)</t>
+  </si>
+  <si>
+    <t>1288.2262804497907 (14.0)</t>
+  </si>
+  <si>
+    <t>1302.4732121834456 (15.0)</t>
+  </si>
+  <si>
+    <t>12.44137869046978 (1.5)</t>
+  </si>
+  <si>
+    <t>12.64419272301419 (3.5)</t>
+  </si>
+  <si>
+    <t>26.033291528698047 (5.5)</t>
+  </si>
+  <si>
+    <t>28.004439346126524 (7.5)</t>
+  </si>
+  <si>
+    <t>30.55992495821537 (10.5)</t>
+  </si>
+  <si>
+    <t>29.58017285935277 (9.0)</t>
+  </si>
+  <si>
+    <t>33.752976328744865 (12.0)</t>
+  </si>
+  <si>
+    <t>34.1903360734998 (13.0)</t>
+  </si>
+  <si>
+    <t>35.89186928051799 (14.0)</t>
+  </si>
+  <si>
+    <t>36.089793739829624 (15.0)</t>
+  </si>
+  <si>
+    <t>10.933052731256993 (3.5)</t>
+  </si>
+  <si>
+    <t>10.453817628332596 (1.5)</t>
+  </si>
+  <si>
+    <t>23.513177132973368 (5.5)</t>
+  </si>
+  <si>
+    <t>24.413935445501227 (7.5)</t>
+  </si>
+  <si>
+    <t>27.247881304073484 (10.5)</t>
+  </si>
+  <si>
+    <t>25.471040474144512 (9.0)</t>
+  </si>
+  <si>
+    <t>30.50455015918693 (12.0)</t>
+  </si>
+  <si>
+    <t>32.78825539496767 (13.0)</t>
+  </si>
+  <si>
+    <t>34.003386705484 (15.0)</t>
+  </si>
+  <si>
+    <t>33.792005476606384 (14.0)</t>
+  </si>
+  <si>
+    <t>0.021462690992830425 (3.5)</t>
+  </si>
+  <si>
+    <t>0.02060573914589993 (1.5)</t>
+  </si>
+  <si>
+    <t>0.04603347827148068 (5.5)</t>
+  </si>
+  <si>
+    <t>0.049032076253599205 (7.5)</t>
+  </si>
+  <si>
+    <t>0.05465205756874713 (10.5)</t>
+  </si>
+  <si>
+    <t>0.0511822104904102 (9.0)</t>
+  </si>
+  <si>
+    <t>0.06111976919962126 (12.0)</t>
+  </si>
+  <si>
+    <t>0.06536641078681207 (13.0)</t>
+  </si>
+  <si>
+    <t>0.0678887338076721 (15.0)</t>
+  </si>
+  <si>
+    <t>0.06752297605953485 (14.0)</t>
+  </si>
+  <si>
+    <t>0.13701483906781642 (1.5)</t>
+  </si>
+  <si>
+    <t>0.108649478553003 (3.5)</t>
+  </si>
+  <si>
+    <t>-2.7785439052862 (5.5)</t>
+  </si>
+  <si>
+    <t>-3.3724018992764266 (7.5)</t>
+  </si>
+  <si>
+    <t>-4.2067997621395055 (10.5)</t>
+  </si>
+  <si>
+    <t>-3.878291238800471 (9.0)</t>
+  </si>
+  <si>
+    <t>-5.3517070423580755 (12.0)</t>
+  </si>
+  <si>
+    <t>-5.517380079090693 (13.0)</t>
+  </si>
+  <si>
+    <t>-6.182216033911679 (14.0)</t>
+  </si>
+  <si>
+    <t>-6.2616465990883 (15.0)</t>
+  </si>
+  <si>
+    <t>18.988822145976428 (3.5)</t>
+  </si>
+  <si>
+    <t>18.899634991254743 (1.5)</t>
+  </si>
+  <si>
+    <t>36.52850013764635 (5.5)</t>
+  </si>
+  <si>
+    <t>47.62427541111026 (7.5)</t>
+  </si>
+  <si>
+    <t>49.84970909806225 (12.5)</t>
+  </si>
+  <si>
+    <t>49.01267414633003 (9.0)</t>
+  </si>
+  <si>
+    <t>56.10506121323385 (15.0)</t>
+  </si>
+  <si>
+    <t>49.127827130159176 (11.0)</t>
+  </si>
+  <si>
+    <t>52.17181468340618 (14.0)</t>
+  </si>
+  <si>
+    <t>49.12275923997993 (10.0)</t>
+  </si>
+  <si>
+    <t>0.024511236491942735 (1.5)</t>
+  </si>
+  <si>
+    <t>0.024973679324690867 (3.5)</t>
+  </si>
+  <si>
+    <t>0.05224334664662615 (5.5)</t>
+  </si>
+  <si>
+    <t>0.05463226101738574 (7.5)</t>
+  </si>
+  <si>
+    <t>0.05940989137831338 (10.5)</t>
+  </si>
+  <si>
+    <t>0.05756756664792277 (9.0)</t>
+  </si>
+  <si>
+    <t>0.06534361014525066 (12.0)</t>
+  </si>
+  <si>
+    <t>0.06598586897873275 (13.0)</t>
+  </si>
+  <si>
+    <t>0.06921995896087059 (14.0)</t>
+  </si>
+  <si>
+    <t>0.06956812271114725 (15.0)</t>
+  </si>
+  <si>
+    <t>0.3066513299386126 (1.5)</t>
+  </si>
+  <si>
+    <t>0.3168254919059071 (3.5)</t>
+  </si>
+  <si>
+    <t>1.3769844180980613 (5.5)</t>
+  </si>
+  <si>
+    <t>1.5139752153085813 (7.5)</t>
+  </si>
+  <si>
+    <t>1.7955685650285507 (10.5)</t>
+  </si>
+  <si>
+    <t>1.6836431902939542 (9.0)</t>
+  </si>
+  <si>
+    <t>2.1788707343307956 (12.0)</t>
+  </si>
+  <si>
+    <t>2.2319428058459607 (13.0)</t>
+  </si>
+  <si>
+    <t>2.455488332316122 (14.0)</t>
+  </si>
+  <si>
+    <t>2.481084451877526 (15.0)</t>
+  </si>
+  <si>
+    <t>0.0006076594124035939 (1.5)</t>
+  </si>
+  <si>
+    <t>0.0006280043211669047 (3.5)</t>
+  </si>
+  <si>
+    <t>0.0027990556613196236 (5.5)</t>
+  </si>
+  <si>
+    <t>0.0029237785402497587 (7.5)</t>
+  </si>
+  <si>
+    <t>0.0034536235367530477 (10.5)</t>
+  </si>
+  <si>
+    <t>0.003241041737160666 (9.0)</t>
+  </si>
+  <si>
+    <t>0.0041690985959812465 (12.0)</t>
+  </si>
+  <si>
+    <t>0.004263752279423476 (13.0)</t>
+  </si>
+  <si>
+    <t>0.004682787880152084 (14.0)</t>
+  </si>
+  <si>
+    <t>0.00472872311391422 (15.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,64 +480,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +535,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -348,7 +569,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -383,10 +603,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,25 +778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,69 +850,69 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2">
-        <v>154.78790371967551</v>
+        <v>154.7879037196755</v>
       </c>
       <c r="C2">
-        <v>12.441378690469779</v>
+        <v>12.44137869046978</v>
       </c>
       <c r="D2">
-        <v>10.933052731256989</v>
+        <v>10.93305273125699</v>
       </c>
       <c r="E2">
-        <v>2.1462690992830429E-2</v>
+        <v>0.02146269099283043</v>
       </c>
       <c r="F2">
-        <v>0.13701483906781639</v>
+        <v>0.1370148390678164</v>
       </c>
       <c r="G2">
-        <v>18.988822145976432</v>
+        <v>18.98882214597643</v>
       </c>
       <c r="H2">
-        <v>2.4511236491942739E-2</v>
+        <v>0.02451123649194274</v>
       </c>
       <c r="I2">
         <v>0.3066513299386126</v>
       </c>
       <c r="J2">
-        <v>6.0765941240359389E-4</v>
+        <v>0.0006076594124035939</v>
       </c>
       <c r="K2">
-        <v>1120.6272580913919</v>
+        <v>1120.627258091392</v>
       </c>
       <c r="L2">
         <v>1134.480681213721</v>
@@ -736,47 +944,38 @@
       <c r="U2">
         <v>1.5</v>
       </c>
-      <c r="V2" t="str">
-        <f>_xlfn.CONCAT(ROUND(B2,6)," (",M2,")")</f>
-        <v>154.787904 (1.5)</v>
-      </c>
-      <c r="W2" t="str">
-        <f t="shared" ref="W2:AD2" si="0">_xlfn.CONCAT(ROUND(C2,6)," (",N2,")")</f>
-        <v>12.441379 (1.5)</v>
-      </c>
-      <c r="X2" t="str">
-        <f t="shared" si="0"/>
-        <v>10.933053 (3.5)</v>
-      </c>
-      <c r="Y2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.021463 (3.5)</v>
-      </c>
-      <c r="Z2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.137015 (1.5)</v>
-      </c>
-      <c r="AA2" t="str">
-        <f t="shared" si="0"/>
-        <v>18.988822 (3.5)</v>
-      </c>
-      <c r="AB2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.024511 (1.5)</v>
-      </c>
-      <c r="AC2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.306651 (1.5)</v>
-      </c>
-      <c r="AD2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.000608 (1.5)</v>
-      </c>
-      <c r="AE2" s="2">
+      <c r="V2">
         <v>2.083333333333333</v>
       </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -784,34 +983,34 @@
         <v>159.875609616725</v>
       </c>
       <c r="C3">
-        <v>12.644192723014189</v>
+        <v>12.64419272301419</v>
       </c>
       <c r="D3">
-        <v>10.453817628332599</v>
+        <v>10.4538176283326</v>
       </c>
       <c r="E3">
-        <v>2.0605739145899929E-2</v>
+        <v>0.02060573914589993</v>
       </c>
       <c r="F3">
         <v>0.108649478553003</v>
       </c>
       <c r="G3">
-        <v>18.899634991254739</v>
+        <v>18.89963499125474</v>
       </c>
       <c r="H3">
-        <v>2.497367932469087E-2</v>
+        <v>0.02497367932469087</v>
       </c>
       <c r="I3">
-        <v>0.31682549190590709</v>
+        <v>0.3168254919059071</v>
       </c>
       <c r="J3">
-        <v>6.2800432116690474E-4</v>
+        <v>0.0006280043211669047</v>
       </c>
       <c r="K3">
-        <v>1117.5116190480319</v>
+        <v>1117.511619048032</v>
       </c>
       <c r="L3">
-        <v>1125.8236729214291</v>
+        <v>1125.823672921429</v>
       </c>
       <c r="M3">
         <v>3.5</v>
@@ -840,82 +1039,73 @@
       <c r="U3">
         <v>3.5</v>
       </c>
-      <c r="V3" t="str">
-        <f t="shared" ref="V3:V16" si="1">_xlfn.CONCAT(ROUND(B3,6)," (",M3,")")</f>
-        <v>159.87561 (3.5)</v>
-      </c>
-      <c r="W3" t="str">
-        <f t="shared" ref="W3:W16" si="2">_xlfn.CONCAT(ROUND(C3,6)," (",N3,")")</f>
-        <v>12.644193 (3.5)</v>
-      </c>
-      <c r="X3" t="str">
-        <f t="shared" ref="X3:X16" si="3">_xlfn.CONCAT(ROUND(D3,6)," (",O3,")")</f>
-        <v>10.453818 (1.5)</v>
-      </c>
-      <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y16" si="4">_xlfn.CONCAT(ROUND(E3,6)," (",P3,")")</f>
-        <v>0.020606 (1.5)</v>
-      </c>
-      <c r="Z3" t="str">
-        <f t="shared" ref="Z3:Z16" si="5">_xlfn.CONCAT(ROUND(F3,6)," (",Q3,")")</f>
-        <v>0.108649 (3.5)</v>
-      </c>
-      <c r="AA3" t="str">
-        <f t="shared" ref="AA3:AA16" si="6">_xlfn.CONCAT(ROUND(G3,6)," (",R3,")")</f>
-        <v>18.899635 (1.5)</v>
-      </c>
-      <c r="AB3" t="str">
-        <f t="shared" ref="AB3:AB16" si="7">_xlfn.CONCAT(ROUND(H3,6)," (",S3,")")</f>
-        <v>0.024974 (3.5)</v>
-      </c>
-      <c r="AC3" t="str">
-        <f t="shared" ref="AC3:AC16" si="8">_xlfn.CONCAT(ROUND(I3,6)," (",T3,")")</f>
-        <v>0.316825 (3.5)</v>
-      </c>
-      <c r="AD3" t="str">
-        <f t="shared" ref="AD3:AD16" si="9">_xlfn.CONCAT(ROUND(J3,6)," (",U3,")")</f>
-        <v>0.000628 (3.5)</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>2.7166666666666668</v>
+      <c r="V3">
+        <v>2.716666666666667</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4">
-        <v>677.73226781818153</v>
+        <v>677.7322678181815</v>
       </c>
       <c r="C4">
-        <v>26.033291528698051</v>
+        <v>26.03329152869805</v>
       </c>
       <c r="D4">
-        <v>23.513177132973372</v>
+        <v>23.51317713297337</v>
       </c>
       <c r="E4">
-        <v>4.6033478271480681E-2</v>
+        <v>0.04603347827148068</v>
       </c>
       <c r="F4">
-        <v>-2.7785439052862002</v>
+        <v>-2.7785439052862</v>
       </c>
       <c r="G4">
-        <v>36.528500137646347</v>
+        <v>36.52850013764635</v>
       </c>
       <c r="H4">
-        <v>5.2243346646626151E-2</v>
+        <v>0.05224334664662615</v>
       </c>
       <c r="I4">
         <v>1.376984418098061</v>
       </c>
       <c r="J4">
-        <v>2.799055661319624E-3</v>
+        <v>0.002799055661319624</v>
       </c>
       <c r="K4">
-        <v>1123.0783370346601</v>
+        <v>1123.07833703466</v>
       </c>
       <c r="L4">
-        <v>1134.1610755325221</v>
+        <v>1134.161075532522</v>
       </c>
       <c r="M4">
         <v>5.5</v>
@@ -944,82 +1134,73 @@
       <c r="U4">
         <v>5.5</v>
       </c>
-      <c r="V4" t="str">
-        <f t="shared" si="1"/>
-        <v>677.732268 (5.5)</v>
-      </c>
-      <c r="W4" t="str">
-        <f t="shared" si="2"/>
-        <v>26.033292 (5.5)</v>
-      </c>
-      <c r="X4" t="str">
-        <f t="shared" si="3"/>
-        <v>23.513177 (5.5)</v>
-      </c>
-      <c r="Y4" t="str">
-        <f t="shared" si="4"/>
-        <v>0.046033 (5.5)</v>
-      </c>
-      <c r="Z4" t="str">
-        <f t="shared" si="5"/>
-        <v>-2.778544 (5.5)</v>
-      </c>
-      <c r="AA4" t="str">
-        <f t="shared" si="6"/>
-        <v>36.5285 (5.5)</v>
-      </c>
-      <c r="AB4" t="str">
-        <f t="shared" si="7"/>
-        <v>0.052243 (5.5)</v>
-      </c>
-      <c r="AC4" t="str">
-        <f t="shared" si="8"/>
-        <v>1.376984 (5.5)</v>
-      </c>
-      <c r="AD4" t="str">
-        <f t="shared" si="9"/>
-        <v>0.002799 (5.5)</v>
-      </c>
-      <c r="AE4" s="2">
+      <c r="V4">
         <v>5.25</v>
       </c>
+      <c r="W4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5">
-        <v>784.24862309087939</v>
+        <v>784.2486230908794</v>
       </c>
       <c r="C5">
-        <v>28.004439346126521</v>
+        <v>28.00443934612652</v>
       </c>
       <c r="D5">
-        <v>24.413935445501231</v>
+        <v>24.41393544550123</v>
       </c>
       <c r="E5">
-        <v>4.9032076253599198E-2</v>
+        <v>0.0490320762535992</v>
       </c>
       <c r="F5">
-        <v>-3.3724018992764271</v>
+        <v>-3.372401899276427</v>
       </c>
       <c r="G5">
-        <v>47.624275411110261</v>
+        <v>47.62427541111026</v>
       </c>
       <c r="H5">
-        <v>5.463226101738574E-2</v>
+        <v>0.05463226101738574</v>
       </c>
       <c r="I5">
         <v>1.513975215308581</v>
       </c>
       <c r="J5">
-        <v>2.9237785402497591E-3</v>
+        <v>0.002923778540249759</v>
       </c>
       <c r="K5">
-        <v>1104.2557032014479</v>
+        <v>1104.255703201448</v>
       </c>
       <c r="L5">
-        <v>1112.5930736807829</v>
+        <v>1112.593073680783</v>
       </c>
       <c r="M5">
         <v>7.5</v>
@@ -1048,76 +1229,67 @@
       <c r="U5">
         <v>7.5</v>
       </c>
-      <c r="V5" t="str">
-        <f t="shared" si="1"/>
-        <v>784.248623 (7.5)</v>
-      </c>
-      <c r="W5" t="str">
-        <f t="shared" si="2"/>
-        <v>28.004439 (7.5)</v>
-      </c>
-      <c r="X5" t="str">
-        <f t="shared" si="3"/>
-        <v>24.413935 (7.5)</v>
-      </c>
-      <c r="Y5" t="str">
-        <f t="shared" si="4"/>
-        <v>0.049032 (7.5)</v>
-      </c>
-      <c r="Z5" t="str">
-        <f t="shared" si="5"/>
-        <v>-3.372402 (7.5)</v>
-      </c>
-      <c r="AA5" t="str">
-        <f t="shared" si="6"/>
-        <v>47.624275 (7.5)</v>
-      </c>
-      <c r="AB5" t="str">
-        <f t="shared" si="7"/>
-        <v>0.054632 (7.5)</v>
-      </c>
-      <c r="AC5" t="str">
-        <f t="shared" si="8"/>
-        <v>1.513975 (7.5)</v>
-      </c>
-      <c r="AD5" t="str">
-        <f t="shared" si="9"/>
-        <v>0.002924 (7.5)</v>
-      </c>
-      <c r="AE5" s="2">
+      <c r="V5">
         <v>7.15</v>
       </c>
+      <c r="W5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6">
-        <v>933.90901345175462</v>
+        <v>933.9090134517546</v>
       </c>
       <c r="C6">
-        <v>30.559924958215369</v>
+        <v>30.55992495821537</v>
       </c>
       <c r="D6">
-        <v>27.247881304073481</v>
+        <v>27.24788130407348</v>
       </c>
       <c r="E6">
-        <v>5.465205756874713E-2</v>
+        <v>0.05465205756874713</v>
       </c>
       <c r="F6">
-        <v>-4.2067997621395046</v>
+        <v>-4.206799762139505</v>
       </c>
       <c r="G6">
-        <v>49.849709098062249</v>
+        <v>49.84970909806225</v>
       </c>
       <c r="H6">
-        <v>5.940989137831338E-2</v>
+        <v>0.05940989137831338</v>
       </c>
       <c r="I6">
-        <v>1.7955685650285509</v>
+        <v>1.795568565028551</v>
       </c>
       <c r="J6">
-        <v>3.4536235367530481E-3</v>
+        <v>0.003453623536753048</v>
       </c>
       <c r="K6">
         <v>1105.029145398172</v>
@@ -1152,79 +1324,70 @@
       <c r="U6">
         <v>10.5</v>
       </c>
-      <c r="V6" t="str">
-        <f t="shared" si="1"/>
-        <v>933.909013 (10.5)</v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="2"/>
-        <v>30.559925 (10.5)</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="3"/>
-        <v>27.247881 (10.5)</v>
-      </c>
-      <c r="Y6" t="str">
-        <f t="shared" si="4"/>
-        <v>0.054652 (10.5)</v>
-      </c>
-      <c r="Z6" t="str">
-        <f t="shared" si="5"/>
-        <v>-4.2068 (10.5)</v>
-      </c>
-      <c r="AA6" t="str">
-        <f t="shared" si="6"/>
-        <v>49.849709 (12.5)</v>
-      </c>
-      <c r="AB6" t="str">
-        <f t="shared" si="7"/>
-        <v>0.05941 (10.5)</v>
-      </c>
-      <c r="AC6" t="str">
-        <f t="shared" si="8"/>
-        <v>1.795569 (10.5)</v>
-      </c>
-      <c r="AD6" t="str">
-        <f t="shared" si="9"/>
-        <v>0.003454 (10.5)</v>
-      </c>
-      <c r="AE6" s="2">
+      <c r="V6">
         <v>10.15</v>
       </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7">
-        <v>154.78790371967551</v>
+        <v>154.7879037196755</v>
       </c>
       <c r="C7">
-        <v>12.441378690469779</v>
+        <v>12.44137869046978</v>
       </c>
       <c r="D7">
-        <v>10.933052731256989</v>
+        <v>10.93305273125699</v>
       </c>
       <c r="E7">
-        <v>2.1462690992830429E-2</v>
+        <v>0.02146269099283043</v>
       </c>
       <c r="F7">
-        <v>0.13701483906781639</v>
+        <v>0.1370148390678164</v>
       </c>
       <c r="G7">
-        <v>18.988822145976432</v>
+        <v>18.98882214597643</v>
       </c>
       <c r="H7">
-        <v>2.4511236491942739E-2</v>
+        <v>0.02451123649194274</v>
       </c>
       <c r="I7">
         <v>0.3066513299386126</v>
       </c>
       <c r="J7">
-        <v>6.0765941240359389E-4</v>
+        <v>0.0006076594124035939</v>
       </c>
       <c r="K7">
-        <v>1120.6272580913919</v>
+        <v>1120.627258091392</v>
       </c>
       <c r="L7">
         <v>1134.480681213721</v>
@@ -1256,47 +1419,38 @@
       <c r="U7">
         <v>1.5</v>
       </c>
-      <c r="V7" t="str">
-        <f t="shared" si="1"/>
-        <v>154.787904 (1.5)</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="2"/>
-        <v>12.441379 (1.5)</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="3"/>
-        <v>10.933053 (3.5)</v>
-      </c>
-      <c r="Y7" t="str">
-        <f t="shared" si="4"/>
-        <v>0.021463 (3.5)</v>
-      </c>
-      <c r="Z7" t="str">
-        <f t="shared" si="5"/>
-        <v>0.137015 (1.5)</v>
-      </c>
-      <c r="AA7" t="str">
-        <f t="shared" si="6"/>
-        <v>18.988822 (3.5)</v>
-      </c>
-      <c r="AB7" t="str">
-        <f t="shared" si="7"/>
-        <v>0.024511 (1.5)</v>
-      </c>
-      <c r="AC7" t="str">
-        <f t="shared" si="8"/>
-        <v>0.306651 (1.5)</v>
-      </c>
-      <c r="AD7" t="str">
-        <f t="shared" si="9"/>
-        <v>0.000608 (1.5)</v>
-      </c>
-      <c r="AE7" s="2">
+      <c r="V7">
         <v>2.083333333333333</v>
       </c>
+      <c r="W7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1304,34 +1458,34 @@
         <v>159.875609616725</v>
       </c>
       <c r="C8">
-        <v>12.644192723014189</v>
+        <v>12.64419272301419</v>
       </c>
       <c r="D8">
-        <v>10.453817628332599</v>
+        <v>10.4538176283326</v>
       </c>
       <c r="E8">
-        <v>2.0605739145899929E-2</v>
+        <v>0.02060573914589993</v>
       </c>
       <c r="F8">
         <v>0.108649478553003</v>
       </c>
       <c r="G8">
-        <v>18.899634991254739</v>
+        <v>18.89963499125474</v>
       </c>
       <c r="H8">
-        <v>2.497367932469087E-2</v>
+        <v>0.02497367932469087</v>
       </c>
       <c r="I8">
-        <v>0.31682549190590709</v>
+        <v>0.3168254919059071</v>
       </c>
       <c r="J8">
-        <v>6.2800432116690474E-4</v>
+        <v>0.0006280043211669047</v>
       </c>
       <c r="K8">
-        <v>1117.5116190480319</v>
+        <v>1117.511619048032</v>
       </c>
       <c r="L8">
-        <v>1125.8236729214291</v>
+        <v>1125.823672921429</v>
       </c>
       <c r="M8">
         <v>3.5</v>
@@ -1360,82 +1514,73 @@
       <c r="U8">
         <v>3.5</v>
       </c>
-      <c r="V8" t="str">
-        <f t="shared" si="1"/>
-        <v>159.87561 (3.5)</v>
-      </c>
-      <c r="W8" t="str">
-        <f t="shared" si="2"/>
-        <v>12.644193 (3.5)</v>
-      </c>
-      <c r="X8" t="str">
-        <f t="shared" si="3"/>
-        <v>10.453818 (1.5)</v>
-      </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="4"/>
-        <v>0.020606 (1.5)</v>
-      </c>
-      <c r="Z8" t="str">
-        <f t="shared" si="5"/>
-        <v>0.108649 (3.5)</v>
-      </c>
-      <c r="AA8" t="str">
-        <f t="shared" si="6"/>
-        <v>18.899635 (1.5)</v>
-      </c>
-      <c r="AB8" t="str">
-        <f t="shared" si="7"/>
-        <v>0.024974 (3.5)</v>
-      </c>
-      <c r="AC8" t="str">
-        <f t="shared" si="8"/>
-        <v>0.316825 (3.5)</v>
-      </c>
-      <c r="AD8" t="str">
-        <f t="shared" si="9"/>
-        <v>0.000628 (3.5)</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>2.7166666666666668</v>
+      <c r="V8">
+        <v>2.716666666666667</v>
+      </c>
+      <c r="W8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9">
-        <v>677.73226781818153</v>
+        <v>677.7322678181815</v>
       </c>
       <c r="C9">
-        <v>26.033291528698051</v>
+        <v>26.03329152869805</v>
       </c>
       <c r="D9">
-        <v>23.513177132973372</v>
+        <v>23.51317713297337</v>
       </c>
       <c r="E9">
-        <v>4.6033478271480681E-2</v>
+        <v>0.04603347827148068</v>
       </c>
       <c r="F9">
-        <v>-2.7785439052862002</v>
+        <v>-2.7785439052862</v>
       </c>
       <c r="G9">
-        <v>36.528500137646347</v>
+        <v>36.52850013764635</v>
       </c>
       <c r="H9">
-        <v>5.2243346646626151E-2</v>
+        <v>0.05224334664662615</v>
       </c>
       <c r="I9">
         <v>1.376984418098061</v>
       </c>
       <c r="J9">
-        <v>2.799055661319624E-3</v>
+        <v>0.002799055661319624</v>
       </c>
       <c r="K9">
-        <v>1123.0783370346601</v>
+        <v>1123.07833703466</v>
       </c>
       <c r="L9">
-        <v>1134.1610755325221</v>
+        <v>1134.161075532522</v>
       </c>
       <c r="M9">
         <v>5.5</v>
@@ -1464,82 +1609,73 @@
       <c r="U9">
         <v>5.5</v>
       </c>
-      <c r="V9" t="str">
-        <f t="shared" si="1"/>
-        <v>677.732268 (5.5)</v>
-      </c>
-      <c r="W9" t="str">
-        <f t="shared" si="2"/>
-        <v>26.033292 (5.5)</v>
-      </c>
-      <c r="X9" t="str">
-        <f t="shared" si="3"/>
-        <v>23.513177 (5.5)</v>
-      </c>
-      <c r="Y9" t="str">
-        <f t="shared" si="4"/>
-        <v>0.046033 (5.5)</v>
-      </c>
-      <c r="Z9" t="str">
-        <f t="shared" si="5"/>
-        <v>-2.778544 (5.5)</v>
-      </c>
-      <c r="AA9" t="str">
-        <f t="shared" si="6"/>
-        <v>36.5285 (5.5)</v>
-      </c>
-      <c r="AB9" t="str">
-        <f t="shared" si="7"/>
-        <v>0.052243 (5.5)</v>
-      </c>
-      <c r="AC9" t="str">
-        <f t="shared" si="8"/>
-        <v>1.376984 (5.5)</v>
-      </c>
-      <c r="AD9" t="str">
-        <f t="shared" si="9"/>
-        <v>0.002799 (5.5)</v>
-      </c>
-      <c r="AE9" s="2">
+      <c r="V9">
         <v>5.25</v>
       </c>
+      <c r="W9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10">
-        <v>784.24862309087939</v>
+        <v>784.2486230908794</v>
       </c>
       <c r="C10">
-        <v>28.004439346126521</v>
+        <v>28.00443934612652</v>
       </c>
       <c r="D10">
-        <v>24.413935445501231</v>
+        <v>24.41393544550123</v>
       </c>
       <c r="E10">
-        <v>4.9032076253599198E-2</v>
+        <v>0.0490320762535992</v>
       </c>
       <c r="F10">
-        <v>-3.3724018992764271</v>
+        <v>-3.372401899276427</v>
       </c>
       <c r="G10">
-        <v>47.624275411110261</v>
+        <v>47.62427541111026</v>
       </c>
       <c r="H10">
-        <v>5.463226101738574E-2</v>
+        <v>0.05463226101738574</v>
       </c>
       <c r="I10">
         <v>1.513975215308581</v>
       </c>
       <c r="J10">
-        <v>2.9237785402497591E-3</v>
+        <v>0.002923778540249759</v>
       </c>
       <c r="K10">
-        <v>1104.2557032014479</v>
+        <v>1104.255703201448</v>
       </c>
       <c r="L10">
-        <v>1112.5930736807829</v>
+        <v>1112.593073680783</v>
       </c>
       <c r="M10">
         <v>7.5</v>
@@ -1568,76 +1704,67 @@
       <c r="U10">
         <v>7.5</v>
       </c>
-      <c r="V10" t="str">
-        <f t="shared" si="1"/>
-        <v>784.248623 (7.5)</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="2"/>
-        <v>28.004439 (7.5)</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="3"/>
-        <v>24.413935 (7.5)</v>
-      </c>
-      <c r="Y10" t="str">
-        <f t="shared" si="4"/>
-        <v>0.049032 (7.5)</v>
-      </c>
-      <c r="Z10" t="str">
-        <f t="shared" si="5"/>
-        <v>-3.372402 (7.5)</v>
-      </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="6"/>
-        <v>47.624275 (7.5)</v>
-      </c>
-      <c r="AB10" t="str">
-        <f t="shared" si="7"/>
-        <v>0.054632 (7.5)</v>
-      </c>
-      <c r="AC10" t="str">
-        <f t="shared" si="8"/>
-        <v>1.513975 (7.5)</v>
-      </c>
-      <c r="AD10" t="str">
-        <f t="shared" si="9"/>
-        <v>0.002924 (7.5)</v>
-      </c>
-      <c r="AE10" s="2">
+      <c r="V10">
         <v>7.15</v>
       </c>
+      <c r="W10" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>40</v>
       </c>
       <c r="B11">
-        <v>933.90901345175462</v>
+        <v>933.9090134517546</v>
       </c>
       <c r="C11">
-        <v>30.559924958215369</v>
+        <v>30.55992495821537</v>
       </c>
       <c r="D11">
-        <v>27.247881304073481</v>
+        <v>27.24788130407348</v>
       </c>
       <c r="E11">
-        <v>5.465205756874713E-2</v>
+        <v>0.05465205756874713</v>
       </c>
       <c r="F11">
-        <v>-4.2067997621395046</v>
+        <v>-4.206799762139505</v>
       </c>
       <c r="G11">
-        <v>49.849709098062249</v>
+        <v>49.84970909806225</v>
       </c>
       <c r="H11">
-        <v>5.940989137831338E-2</v>
+        <v>0.05940989137831338</v>
       </c>
       <c r="I11">
-        <v>1.7955685650285509</v>
+        <v>1.795568565028551</v>
       </c>
       <c r="J11">
-        <v>3.4536235367530481E-3</v>
+        <v>0.003453623536753048</v>
       </c>
       <c r="K11">
         <v>1105.029145398172</v>
@@ -1672,82 +1799,73 @@
       <c r="U11">
         <v>10.5</v>
       </c>
-      <c r="V11" t="str">
-        <f t="shared" si="1"/>
-        <v>933.909013 (10.5)</v>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" si="2"/>
-        <v>30.559925 (10.5)</v>
-      </c>
-      <c r="X11" t="str">
-        <f t="shared" si="3"/>
-        <v>27.247881 (10.5)</v>
-      </c>
-      <c r="Y11" t="str">
-        <f t="shared" si="4"/>
-        <v>0.054652 (10.5)</v>
-      </c>
-      <c r="Z11" t="str">
-        <f t="shared" si="5"/>
-        <v>-4.2068 (10.5)</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="6"/>
-        <v>49.849709 (12.5)</v>
-      </c>
-      <c r="AB11" t="str">
-        <f t="shared" si="7"/>
-        <v>0.05941 (10.5)</v>
-      </c>
-      <c r="AC11" t="str">
-        <f t="shared" si="8"/>
-        <v>1.795569 (10.5)</v>
-      </c>
-      <c r="AD11" t="str">
-        <f t="shared" si="9"/>
-        <v>0.003454 (10.5)</v>
-      </c>
-      <c r="AE11" s="2">
+      <c r="V11">
         <v>10.15</v>
       </c>
+      <c r="W11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12">
-        <v>874.98662638919041</v>
+        <v>874.9866263891904</v>
       </c>
       <c r="C12">
-        <v>29.580172859352771</v>
+        <v>29.58017285935277</v>
       </c>
       <c r="D12">
-        <v>25.471040474144509</v>
+        <v>25.47104047414451</v>
       </c>
       <c r="E12">
-        <v>5.1182210490410197E-2</v>
+        <v>0.0511822104904102</v>
       </c>
       <c r="F12">
-        <v>-3.8782912388004709</v>
+        <v>-3.878291238800471</v>
       </c>
       <c r="G12">
-        <v>49.012674146330028</v>
+        <v>49.01267414633003</v>
       </c>
       <c r="H12">
-        <v>5.7567566647922772E-2</v>
+        <v>0.05756756664792277</v>
       </c>
       <c r="I12">
-        <v>1.6836431902939539</v>
+        <v>1.683643190293954</v>
       </c>
       <c r="J12">
-        <v>3.2410417371606659E-3</v>
+        <v>0.003241041737160666</v>
       </c>
       <c r="K12">
         <v>1117.3258739506</v>
       </c>
       <c r="L12">
-        <v>1167.5007253206761</v>
+        <v>1167.500725320676</v>
       </c>
       <c r="M12">
         <v>9</v>
@@ -1776,76 +1894,67 @@
       <c r="U12">
         <v>9</v>
       </c>
-      <c r="V12" t="str">
-        <f t="shared" si="1"/>
-        <v>874.986626 (9)</v>
-      </c>
-      <c r="W12" t="str">
-        <f t="shared" si="2"/>
-        <v>29.580173 (9)</v>
-      </c>
-      <c r="X12" t="str">
-        <f t="shared" si="3"/>
-        <v>25.47104 (9)</v>
-      </c>
-      <c r="Y12" t="str">
-        <f t="shared" si="4"/>
-        <v>0.051182 (9)</v>
-      </c>
-      <c r="Z12" t="str">
-        <f t="shared" si="5"/>
-        <v>-3.878291 (9)</v>
-      </c>
-      <c r="AA12" t="str">
-        <f t="shared" si="6"/>
-        <v>49.012674 (9)</v>
-      </c>
-      <c r="AB12" t="str">
-        <f t="shared" si="7"/>
-        <v>0.057568 (9)</v>
-      </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="8"/>
-        <v>1.683643 (9)</v>
-      </c>
-      <c r="AD12" t="str">
-        <f t="shared" si="9"/>
-        <v>0.003241 (9)</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>8.1999999999999993</v>
+      <c r="V12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="B13">
-        <v>1139.2634110488109</v>
+        <v>1139.263411048811</v>
       </c>
       <c r="C13">
-        <v>33.752976328744857</v>
+        <v>33.75297632874486</v>
       </c>
       <c r="D13">
         <v>30.50455015918693</v>
       </c>
       <c r="E13">
-        <v>6.1119769199621261E-2</v>
+        <v>0.06111976919962126</v>
       </c>
       <c r="F13">
-        <v>-5.3517070423580746</v>
+        <v>-5.351707042358075</v>
       </c>
       <c r="G13">
-        <v>56.105061213233853</v>
+        <v>56.10506121323385</v>
       </c>
       <c r="H13">
-        <v>6.5343610145250655E-2</v>
+        <v>0.06534361014525066</v>
       </c>
       <c r="I13">
         <v>2.178870734330796</v>
       </c>
       <c r="J13">
-        <v>4.1690985959812474E-3</v>
+        <v>0.004169098595981247</v>
       </c>
       <c r="K13">
         <v>1122.030258131319</v>
@@ -1880,47 +1989,38 @@
       <c r="U13">
         <v>12</v>
       </c>
-      <c r="V13" t="str">
-        <f t="shared" si="1"/>
-        <v>1139.263411 (12)</v>
-      </c>
-      <c r="W13" t="str">
-        <f t="shared" si="2"/>
-        <v>33.752976 (12)</v>
-      </c>
-      <c r="X13" t="str">
-        <f t="shared" si="3"/>
-        <v>30.50455 (12)</v>
-      </c>
-      <c r="Y13" t="str">
-        <f t="shared" si="4"/>
-        <v>0.06112 (12)</v>
-      </c>
-      <c r="Z13" t="str">
-        <f t="shared" si="5"/>
-        <v>-5.351707 (12)</v>
-      </c>
-      <c r="AA13" t="str">
-        <f t="shared" si="6"/>
-        <v>56.105061 (15)</v>
-      </c>
-      <c r="AB13" t="str">
-        <f t="shared" si="7"/>
-        <v>0.065344 (12)</v>
-      </c>
-      <c r="AC13" t="str">
-        <f t="shared" si="8"/>
-        <v>2.178871 (12)</v>
-      </c>
-      <c r="AD13" t="str">
-        <f t="shared" si="9"/>
-        <v>0.004169 (12)</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>11.388888888888889</v>
+      <c r="V13">
+        <v>11.38888888888889</v>
+      </c>
+      <c r="W13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1934,28 +2034,28 @@
         <v>32.78825539496767</v>
       </c>
       <c r="E14">
-        <v>6.5366410786812074E-2</v>
+        <v>0.06536641078681207</v>
       </c>
       <c r="F14">
-        <v>-5.5173800790906933</v>
+        <v>-5.517380079090693</v>
       </c>
       <c r="G14">
-        <v>49.127827130159183</v>
+        <v>49.12782713015918</v>
       </c>
       <c r="H14">
-        <v>6.5985868978732751E-2</v>
+        <v>0.06598586897873275</v>
       </c>
       <c r="I14">
-        <v>2.2319428058459612</v>
+        <v>2.231942805845961</v>
       </c>
       <c r="J14">
-        <v>4.2637522794234757E-3</v>
+        <v>0.004263752279423476</v>
       </c>
       <c r="K14">
-        <v>1118.1827226420669</v>
+        <v>1118.182722642067</v>
       </c>
       <c r="L14">
-        <v>1154.4201152982339</v>
+        <v>1154.420115298234</v>
       </c>
       <c r="M14">
         <v>13</v>
@@ -1984,79 +2084,70 @@
       <c r="U14">
         <v>13</v>
       </c>
-      <c r="V14" t="str">
-        <f t="shared" si="1"/>
-        <v>1168.979081 (13)</v>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="2"/>
-        <v>34.190336 (13)</v>
-      </c>
-      <c r="X14" t="str">
-        <f t="shared" si="3"/>
-        <v>32.788255 (13)</v>
-      </c>
-      <c r="Y14" t="str">
-        <f t="shared" si="4"/>
-        <v>0.065366 (13)</v>
-      </c>
-      <c r="Z14" t="str">
-        <f t="shared" si="5"/>
-        <v>-5.51738 (13)</v>
-      </c>
-      <c r="AA14" t="str">
-        <f t="shared" si="6"/>
-        <v>49.127827 (11)</v>
-      </c>
-      <c r="AB14" t="str">
-        <f t="shared" si="7"/>
-        <v>0.065986 (13)</v>
-      </c>
-      <c r="AC14" t="str">
-        <f t="shared" si="8"/>
-        <v>2.231943 (13)</v>
-      </c>
-      <c r="AD14" t="str">
-        <f t="shared" si="9"/>
-        <v>0.004264 (13)</v>
-      </c>
-      <c r="AE14" s="2">
+      <c r="V14">
         <v>11.8</v>
       </c>
+      <c r="W14" t="s">
+        <v>53</v>
+      </c>
+      <c r="X14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>44</v>
       </c>
       <c r="B15">
-        <v>1288.2262804497909</v>
+        <v>1288.226280449791</v>
       </c>
       <c r="C15">
-        <v>35.891869280517987</v>
+        <v>35.89186928051799</v>
       </c>
       <c r="D15">
-        <v>34.003386705483997</v>
+        <v>34.003386705484</v>
       </c>
       <c r="E15">
-        <v>6.7888733807672103E-2</v>
+        <v>0.0678887338076721</v>
       </c>
       <c r="F15">
-        <v>-6.1822160339116792</v>
+        <v>-6.182216033911679</v>
       </c>
       <c r="G15">
-        <v>52.171814683406183</v>
+        <v>52.17181468340618</v>
       </c>
       <c r="H15">
-        <v>6.921995896087059E-2</v>
+        <v>0.06921995896087059</v>
       </c>
       <c r="I15">
-        <v>2.4554883323161221</v>
+        <v>2.455488332316122</v>
       </c>
       <c r="J15">
-        <v>4.6827878801520839E-3</v>
+        <v>0.004682787880152084</v>
       </c>
       <c r="K15">
-        <v>1113.5160070847601</v>
+        <v>1113.51600708476</v>
       </c>
       <c r="L15">
         <v>1138.603432769798</v>
@@ -2088,82 +2179,73 @@
       <c r="U15">
         <v>14</v>
       </c>
-      <c r="V15" t="str">
-        <f t="shared" si="1"/>
-        <v>1288.22628 (14)</v>
-      </c>
-      <c r="W15" t="str">
-        <f t="shared" si="2"/>
-        <v>35.891869 (14)</v>
-      </c>
-      <c r="X15" t="str">
-        <f t="shared" si="3"/>
-        <v>34.003387 (15)</v>
-      </c>
-      <c r="Y15" t="str">
-        <f t="shared" si="4"/>
-        <v>0.067889 (15)</v>
-      </c>
-      <c r="Z15" t="str">
-        <f t="shared" si="5"/>
-        <v>-6.182216 (14)</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="6"/>
-        <v>52.171815 (14)</v>
-      </c>
-      <c r="AB15" t="str">
-        <f t="shared" si="7"/>
-        <v>0.06922 (14)</v>
-      </c>
-      <c r="AC15" t="str">
-        <f t="shared" si="8"/>
-        <v>2.455488 (14)</v>
-      </c>
-      <c r="AD15" t="str">
-        <f t="shared" si="9"/>
-        <v>0.004683 (14)</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>13.233333333333331</v>
+      <c r="V15">
+        <v>13.23333333333333</v>
+      </c>
+      <c r="W15" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>45</v>
       </c>
       <c r="B16">
-        <v>1302.4732121834461</v>
+        <v>1302.473212183446</v>
       </c>
       <c r="C16">
-        <v>36.089793739829616</v>
+        <v>36.08979373982962</v>
       </c>
       <c r="D16">
-        <v>33.792005476606377</v>
+        <v>33.79200547660638</v>
       </c>
       <c r="E16">
-        <v>6.7522976059534848E-2</v>
+        <v>0.06752297605953485</v>
       </c>
       <c r="F16">
-        <v>-6.2616465990882997</v>
+        <v>-6.2616465990883</v>
       </c>
       <c r="G16">
-        <v>49.122759239979928</v>
+        <v>49.12275923997993</v>
       </c>
       <c r="H16">
-        <v>6.9568122711147248E-2</v>
+        <v>0.06956812271114725</v>
       </c>
       <c r="I16">
-        <v>2.4810844518775261</v>
+        <v>2.481084451877526</v>
       </c>
       <c r="J16">
-        <v>4.7287231139142199E-3</v>
+        <v>0.00472872311391422</v>
       </c>
       <c r="K16">
         <v>1124.092098062978</v>
       </c>
       <c r="L16">
-        <v>1171.4794576902721</v>
+        <v>1171.479457690272</v>
       </c>
       <c r="M16">
         <v>15</v>
@@ -2192,53 +2274,38 @@
       <c r="U16">
         <v>15</v>
       </c>
-      <c r="V16" t="str">
-        <f t="shared" si="1"/>
-        <v>1302.473212 (15)</v>
-      </c>
-      <c r="W16" t="str">
-        <f t="shared" si="2"/>
-        <v>36.089794 (15)</v>
-      </c>
-      <c r="X16" t="str">
-        <f t="shared" si="3"/>
-        <v>33.792005 (14)</v>
-      </c>
-      <c r="Y16" t="str">
-        <f t="shared" si="4"/>
-        <v>0.067523 (14)</v>
-      </c>
-      <c r="Z16" t="str">
-        <f t="shared" si="5"/>
-        <v>-6.261647 (15)</v>
-      </c>
-      <c r="AA16" t="str">
-        <f t="shared" si="6"/>
-        <v>49.122759 (10)</v>
-      </c>
-      <c r="AB16" t="str">
-        <f t="shared" si="7"/>
-        <v>0.069568 (15)</v>
-      </c>
-      <c r="AC16" t="str">
-        <f t="shared" si="8"/>
-        <v>2.481084 (15)</v>
-      </c>
-      <c r="AD16" t="str">
-        <f t="shared" si="9"/>
-        <v>0.004729 (15)</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>13.244444444444451</v>
+      <c r="V16">
+        <v>13.24444444444445</v>
+      </c>
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AE2:AE16">
-    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:U16">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>